--- a/Code/Results/Cases/Case_6_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_31/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.93828117109268</v>
+        <v>16.9491810640276</v>
       </c>
       <c r="C2">
-        <v>12.96036191529837</v>
+        <v>7.051071769739009</v>
       </c>
       <c r="D2">
-        <v>5.574900604484196</v>
+        <v>6.278128079885008</v>
       </c>
       <c r="E2">
-        <v>6.130720773937137</v>
+        <v>6.315516531729439</v>
       </c>
       <c r="F2">
-        <v>38.58616800609951</v>
+        <v>36.34486760187905</v>
       </c>
       <c r="G2">
-        <v>2.106570278114209</v>
+        <v>2.144043815027867</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>18.51091212039422</v>
+        <v>13.24938788372401</v>
       </c>
       <c r="L2">
-        <v>6.179453567747471</v>
+        <v>6.232244105501286</v>
       </c>
       <c r="M2">
-        <v>13.61005112673352</v>
+        <v>11.62134124085984</v>
       </c>
       <c r="N2">
-        <v>15.50058416750202</v>
+        <v>17.70056071224214</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.54394891939716</v>
+        <v>16.06643165710652</v>
       </c>
       <c r="C3">
-        <v>12.06977909762016</v>
+        <v>6.65922494358822</v>
       </c>
       <c r="D3">
-        <v>5.654716432612576</v>
+        <v>6.341951134386989</v>
       </c>
       <c r="E3">
-        <v>6.128472041631587</v>
+        <v>6.321687705265531</v>
       </c>
       <c r="F3">
-        <v>37.10066977865647</v>
+        <v>35.39946202438631</v>
       </c>
       <c r="G3">
-        <v>2.117730904194627</v>
+        <v>2.152639378911057</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.30759188446044</v>
+        <v>12.57271868249316</v>
       </c>
       <c r="L3">
-        <v>6.108144651632112</v>
+        <v>6.163261885508489</v>
       </c>
       <c r="M3">
-        <v>13.08223237519796</v>
+        <v>11.30814213380462</v>
       </c>
       <c r="N3">
-        <v>15.64521127080133</v>
+        <v>17.7810791820954</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.66126535794352</v>
+        <v>15.51191525931845</v>
       </c>
       <c r="C4">
-        <v>11.49635071427545</v>
+        <v>6.408380781134114</v>
       </c>
       <c r="D4">
-        <v>5.705187890795539</v>
+        <v>6.381229528142214</v>
       </c>
       <c r="E4">
-        <v>6.127776433837886</v>
+        <v>6.32742699430308</v>
       </c>
       <c r="F4">
-        <v>36.19712647659004</v>
+        <v>34.83186948932161</v>
       </c>
       <c r="G4">
-        <v>2.124737767592219</v>
+        <v>2.158059460787318</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.58841299585538</v>
+        <v>12.14838308293305</v>
       </c>
       <c r="L4">
-        <v>6.067532031497787</v>
+        <v>6.123718513075738</v>
       </c>
       <c r="M4">
-        <v>12.75845562768036</v>
+        <v>11.11900003752344</v>
       </c>
       <c r="N4">
-        <v>15.73924241185535</v>
+        <v>17.83561647603153</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.29512553397053</v>
+        <v>15.28306751317488</v>
       </c>
       <c r="C5">
-        <v>11.25587958749228</v>
+        <v>6.30359382282789</v>
       </c>
       <c r="D5">
-        <v>5.726121151927781</v>
+        <v>6.39727589879411</v>
       </c>
       <c r="E5">
-        <v>6.12765351497389</v>
+        <v>6.330246466684321</v>
       </c>
       <c r="F5">
-        <v>35.83135849310594</v>
+        <v>34.60395193606544</v>
       </c>
       <c r="G5">
-        <v>2.127634626319499</v>
+        <v>2.160305491232656</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.28996138222738</v>
+        <v>11.97344376938743</v>
       </c>
       <c r="L5">
-        <v>6.051765025236223</v>
+        <v>6.108305805006207</v>
       </c>
       <c r="M5">
-        <v>12.6267321172315</v>
+        <v>11.04279490673278</v>
       </c>
       <c r="N5">
-        <v>15.7788277716962</v>
+        <v>17.85908200044728</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.23394808026396</v>
+        <v>15.24490252654072</v>
       </c>
       <c r="C6">
-        <v>11.21553636704623</v>
+        <v>6.28603960344947</v>
       </c>
       <c r="D6">
-        <v>5.729619148261108</v>
+        <v>6.399943291505015</v>
       </c>
       <c r="E6">
-        <v>6.127642481335818</v>
+        <v>6.330743391799842</v>
       </c>
       <c r="F6">
-        <v>35.77077904339902</v>
+        <v>34.56631474214329</v>
       </c>
       <c r="G6">
-        <v>2.128118230186455</v>
+        <v>2.160680738124023</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.24008545747249</v>
+        <v>11.9442801438609</v>
       </c>
       <c r="L6">
-        <v>6.049193787580704</v>
+        <v>6.105788729437385</v>
       </c>
       <c r="M6">
-        <v>12.6048772059505</v>
+        <v>11.03019603779791</v>
       </c>
       <c r="N6">
-        <v>15.78547611056188</v>
+        <v>17.86305225510995</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.65635316043766</v>
+        <v>15.50884019991725</v>
       </c>
       <c r="C7">
-        <v>11.49313527571163</v>
+        <v>6.406977953835792</v>
       </c>
       <c r="D7">
-        <v>5.705468725438025</v>
+        <v>6.381445750735279</v>
       </c>
       <c r="E7">
-        <v>6.127774140668301</v>
+        <v>6.327463085059135</v>
       </c>
       <c r="F7">
-        <v>36.19218334463906</v>
+        <v>34.8287818368872</v>
       </c>
       <c r="G7">
-        <v>2.12477666413015</v>
+        <v>2.158089598578272</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.5844094659694</v>
+        <v>12.14603166112942</v>
       </c>
       <c r="L7">
-        <v>6.067316241195028</v>
+        <v>6.123507819319948</v>
       </c>
       <c r="M7">
-        <v>12.75667807419616</v>
+        <v>11.11796867572684</v>
       </c>
       <c r="N7">
-        <v>15.73977120357593</v>
+        <v>17.83592796685748</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.46314453687679</v>
+        <v>16.64754825261596</v>
       </c>
       <c r="C8">
-        <v>12.65874488037008</v>
+        <v>6.918093257078631</v>
       </c>
       <c r="D8">
-        <v>5.602115259301733</v>
+        <v>6.300126218834673</v>
       </c>
       <c r="E8">
-        <v>6.129795746665623</v>
+        <v>6.317233624996497</v>
       </c>
       <c r="F8">
-        <v>38.07234492891097</v>
+        <v>36.01629834489054</v>
       </c>
       <c r="G8">
-        <v>2.110388173188197</v>
+        <v>2.146978950919153</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.05996564343302</v>
+        <v>13.01802357686999</v>
       </c>
       <c r="L8">
-        <v>6.154199306184008</v>
+        <v>6.207872257866495</v>
       </c>
       <c r="M8">
-        <v>13.42807394171595</v>
+        <v>11.51273838028125</v>
       </c>
       <c r="N8">
-        <v>15.54933541851807</v>
+        <v>17.72723963911243</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.78935025283118</v>
+        <v>18.77225891151292</v>
       </c>
       <c r="C9">
-        <v>14.73873771711271</v>
+        <v>7.839172434950097</v>
       </c>
       <c r="D9">
-        <v>5.411258034587143</v>
+        <v>6.140529473459917</v>
       </c>
       <c r="E9">
-        <v>6.139800222672404</v>
+        <v>6.31310680312965</v>
       </c>
       <c r="F9">
-        <v>41.81793701678819</v>
+        <v>38.4416880270977</v>
       </c>
       <c r="G9">
-        <v>2.083259872905034</v>
+        <v>2.126247489650366</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21.16702408374268</v>
+        <v>14.65057271058194</v>
       </c>
       <c r="L9">
-        <v>6.350412870084885</v>
+        <v>6.395854335231204</v>
       </c>
       <c r="M9">
-        <v>14.74208941360238</v>
+        <v>12.30886387222677</v>
       </c>
       <c r="N9">
-        <v>15.21988511863797</v>
+        <v>17.55657008946696</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.23302752544105</v>
+        <v>20.25858348523919</v>
       </c>
       <c r="C10">
-        <v>16.14995613243652</v>
+        <v>8.46730742558592</v>
       </c>
       <c r="D10">
-        <v>5.278704184479686</v>
+        <v>6.021895536265498</v>
       </c>
       <c r="E10">
-        <v>6.151810623017606</v>
+        <v>6.320461561296058</v>
       </c>
       <c r="F10">
-        <v>44.5985292458361</v>
+        <v>40.27639595896117</v>
       </c>
       <c r="G10">
-        <v>2.063779991425598</v>
+        <v>2.1115494191839</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>23.27091239714242</v>
+        <v>15.93122562681392</v>
       </c>
       <c r="L10">
-        <v>6.511335762104017</v>
+        <v>6.548034310710325</v>
       </c>
       <c r="M10">
-        <v>15.70114712544308</v>
+        <v>12.903516704251</v>
       </c>
       <c r="N10">
-        <v>15.00873136467608</v>
+        <v>17.46014225139013</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.33281188259084</v>
+        <v>20.91759452401746</v>
       </c>
       <c r="C11">
-        <v>16.76876008045814</v>
+        <v>8.742916174629368</v>
       </c>
       <c r="D11">
-        <v>5.220243421600817</v>
+        <v>5.967303054484375</v>
       </c>
       <c r="E11">
-        <v>6.158551491560357</v>
+        <v>6.32622193196353</v>
       </c>
       <c r="F11">
-        <v>45.87000919604866</v>
+        <v>41.12170844954709</v>
       </c>
       <c r="G11">
-        <v>2.054961756158709</v>
+        <v>2.104951487950859</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>24.19219780417021</v>
+        <v>16.54463920983749</v>
       </c>
       <c r="L11">
-        <v>6.588442205665138</v>
+        <v>6.620398103425376</v>
       </c>
       <c r="M11">
-        <v>16.13566303886074</v>
+        <v>13.1755610895066</v>
       </c>
       <c r="N11">
-        <v>14.92049153080248</v>
+        <v>17.42333240603801</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.74390587357085</v>
+        <v>21.16465580023277</v>
       </c>
       <c r="C12">
-        <v>16.99996433673111</v>
+        <v>8.845870054808005</v>
       </c>
       <c r="D12">
-        <v>5.198392271418982</v>
+        <v>5.946510302329393</v>
       </c>
       <c r="E12">
-        <v>6.161314477018809</v>
+        <v>6.32876468566323</v>
       </c>
       <c r="F12">
-        <v>46.35258416068616</v>
+        <v>41.44331732205507</v>
       </c>
       <c r="G12">
-        <v>2.051623528590974</v>
+        <v>2.102463219900019</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>24.53620610943675</v>
+        <v>16.77309078396745</v>
       </c>
       <c r="L12">
-        <v>6.618226648208525</v>
+        <v>6.648258731727259</v>
       </c>
       <c r="M12">
-        <v>16.31176497226704</v>
+        <v>13.27876244651429</v>
       </c>
       <c r="N12">
-        <v>14.88831350220755</v>
+        <v>17.41048028005061</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.65560327686869</v>
+        <v>21.11155763492241</v>
       </c>
       <c r="C13">
-        <v>16.95030566812037</v>
+        <v>8.823759143100066</v>
       </c>
       <c r="D13">
-        <v>5.203085128456815</v>
+        <v>5.950994229232814</v>
       </c>
       <c r="E13">
-        <v>6.160709589061303</v>
+        <v>6.328200746201966</v>
       </c>
       <c r="F13">
-        <v>46.24860082397946</v>
+        <v>41.37398612642398</v>
       </c>
       <c r="G13">
-        <v>2.052342518902808</v>
+        <v>2.102998700154763</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>24.46232912277514</v>
+        <v>16.72405817148965</v>
       </c>
       <c r="L13">
-        <v>6.611785534089567</v>
+        <v>6.64223794678266</v>
       </c>
       <c r="M13">
-        <v>16.26458446485419</v>
+        <v>13.25652844789431</v>
       </c>
       <c r="N13">
-        <v>14.89518663437861</v>
+        <v>17.41319863993096</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.36673868089506</v>
+        <v>20.93797038152332</v>
       </c>
       <c r="C14">
-        <v>16.78784270139828</v>
+        <v>8.751414288363364</v>
       </c>
       <c r="D14">
-        <v>5.218439816744048</v>
+        <v>5.965595004705044</v>
       </c>
       <c r="E14">
-        <v>6.158774419061694</v>
+        <v>6.326423797227593</v>
       </c>
       <c r="F14">
-        <v>45.90968777143732</v>
+        <v>41.14813723179533</v>
       </c>
       <c r="G14">
-        <v>2.054687129290166</v>
+        <v>2.104746586738243</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>24.22059527332533</v>
+        <v>16.56351018587086</v>
       </c>
       <c r="L14">
-        <v>6.590880689250941</v>
+        <v>6.622680988550504</v>
       </c>
       <c r="M14">
-        <v>16.14918445196835</v>
+        <v>13.18404800265725</v>
       </c>
       <c r="N14">
-        <v>14.917818734056</v>
+        <v>17.42225282841146</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.18911054710514</v>
+        <v>20.83131842077991</v>
       </c>
       <c r="C15">
-        <v>16.68792932759214</v>
+        <v>8.706918407811571</v>
       </c>
       <c r="D15">
-        <v>5.227883117956157</v>
+        <v>5.97452186504005</v>
       </c>
       <c r="E15">
-        <v>6.157617335803903</v>
+        <v>6.325382872382962</v>
       </c>
       <c r="F15">
-        <v>45.70224240737914</v>
+        <v>41.00999432002176</v>
       </c>
       <c r="G15">
-        <v>2.056123241885546</v>
+        <v>2.105818471872651</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>24.07190209778</v>
+        <v>16.46467425761599</v>
       </c>
       <c r="L15">
-        <v>6.57815298211544</v>
+        <v>6.610761671367156</v>
       </c>
       <c r="M15">
-        <v>16.07846724409627</v>
+        <v>13.13967473782722</v>
       </c>
       <c r="N15">
-        <v>14.93184622682609</v>
+        <v>17.4279426097362</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.16038616567144</v>
+        <v>20.21516760286429</v>
       </c>
       <c r="C16">
-        <v>16.10906683628386</v>
+        <v>8.449095381429272</v>
       </c>
       <c r="D16">
-        <v>5.282563484301224</v>
+        <v>6.025448219470928</v>
       </c>
       <c r="E16">
-        <v>6.151397976332928</v>
+        <v>6.32013488725105</v>
       </c>
       <c r="F16">
-        <v>44.51557742528102</v>
+        <v>40.22136453470255</v>
       </c>
       <c r="G16">
-        <v>2.064356727317334</v>
+        <v>2.111982180405808</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>23.21000756338284</v>
+        <v>15.89059417986787</v>
       </c>
       <c r="L16">
-        <v>6.506377215461614</v>
+        <v>6.543368844705016</v>
       </c>
       <c r="M16">
-        <v>15.67271476395101</v>
+        <v>12.88576542392382</v>
       </c>
       <c r="N16">
-        <v>15.01466453614982</v>
+        <v>17.46269585900529</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.51941764117506</v>
+        <v>19.83276008850189</v>
       </c>
       <c r="C17">
-        <v>15.74815962236884</v>
+        <v>8.288362241670058</v>
       </c>
       <c r="D17">
-        <v>5.316592851196001</v>
+        <v>6.056509454859169</v>
       </c>
       <c r="E17">
-        <v>6.147927392952669</v>
+        <v>6.317543656107411</v>
       </c>
       <c r="F17">
-        <v>43.78935110687861</v>
+        <v>39.74027139799241</v>
       </c>
       <c r="G17">
-        <v>2.069415309874148</v>
+        <v>2.115784346208203</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>22.67228852818862</v>
+        <v>15.53145226751412</v>
       </c>
       <c r="L17">
-        <v>6.4633608292257</v>
+        <v>6.502833370221131</v>
       </c>
       <c r="M17">
-        <v>15.42334071191113</v>
+        <v>12.73036326777857</v>
       </c>
       <c r="N17">
-        <v>15.06754723627372</v>
+        <v>17.48587218928829</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.14703247242034</v>
+        <v>19.61119679373885</v>
       </c>
       <c r="C18">
-        <v>15.5383808695336</v>
+        <v>8.19495580289859</v>
       </c>
       <c r="D18">
-        <v>5.336337017746269</v>
+        <v>6.074318159915037</v>
       </c>
       <c r="E18">
-        <v>6.146049593420533</v>
+        <v>6.31627961978133</v>
       </c>
       <c r="F18">
-        <v>43.37224840562897</v>
+        <v>39.46456563856555</v>
       </c>
       <c r="G18">
-        <v>2.07232929134269</v>
+        <v>2.117979723563165</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>22.35961966395818</v>
+        <v>15.32228664433842</v>
       </c>
       <c r="L18">
-        <v>6.438984493768659</v>
+        <v>6.479813153295169</v>
       </c>
       <c r="M18">
-        <v>15.27973880049337</v>
+        <v>12.64112587969838</v>
       </c>
       <c r="N18">
-        <v>15.09869183258785</v>
+        <v>17.49986196365746</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.02030323927477</v>
+        <v>19.53590380502003</v>
       </c>
       <c r="C19">
-        <v>15.46697058189662</v>
+        <v>8.163164441193567</v>
       </c>
       <c r="D19">
-        <v>5.343050914556254</v>
+        <v>6.080338969146302</v>
       </c>
       <c r="E19">
-        <v>6.145433392494816</v>
+        <v>6.315890102058097</v>
       </c>
       <c r="F19">
-        <v>43.23112554774991</v>
+        <v>39.37139077758548</v>
       </c>
       <c r="G19">
-        <v>2.073316821171942</v>
+        <v>2.118724567159312</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>22.25316556564941</v>
+        <v>15.25101728274775</v>
       </c>
       <c r="L19">
-        <v>6.430793180287614</v>
+        <v>6.472069330850973</v>
       </c>
       <c r="M19">
-        <v>15.23108907423653</v>
+        <v>12.61093799275429</v>
       </c>
       <c r="N19">
-        <v>15.10935871950855</v>
+        <v>17.50470982015703</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.58803268768337</v>
+        <v>19.87363524983829</v>
       </c>
       <c r="C20">
-        <v>15.7868045097269</v>
+        <v>8.305571315478003</v>
       </c>
       <c r="D20">
-        <v>5.312952490165436</v>
+        <v>6.05320902821656</v>
       </c>
       <c r="E20">
-        <v>6.148284410248642</v>
+        <v>6.317795968909796</v>
       </c>
       <c r="F20">
-        <v>43.86659596615907</v>
+        <v>39.7913807782606</v>
       </c>
       <c r="G20">
-        <v>2.068876393163428</v>
+        <v>2.1153787394737</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>22.7298782509205</v>
+        <v>15.56995144802075</v>
       </c>
       <c r="L20">
-        <v>6.467901997369429</v>
+        <v>6.507117892630651</v>
       </c>
       <c r="M20">
-        <v>15.44990451245314</v>
+        <v>12.74689130470087</v>
       </c>
       <c r="N20">
-        <v>15.06184169107916</v>
+        <v>17.48333628696834</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.45172848513296</v>
+        <v>20.98902484507662</v>
       </c>
       <c r="C21">
-        <v>16.83564498595921</v>
+        <v>8.772701680867367</v>
       </c>
       <c r="D21">
-        <v>5.213921780486932</v>
+        <v>5.961309906927722</v>
       </c>
       <c r="E21">
-        <v>6.159336881039898</v>
+        <v>6.326935802807117</v>
       </c>
       <c r="F21">
-        <v>46.00920334338009</v>
+        <v>41.21443366782699</v>
       </c>
       <c r="G21">
-        <v>2.053998476647842</v>
+        <v>2.104232933479721</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>24.29172789212614</v>
+        <v>16.61077008386824</v>
       </c>
       <c r="L21">
-        <v>6.597004827721667</v>
+        <v>6.628412846529301</v>
       </c>
       <c r="M21">
-        <v>16.18308670809411</v>
+        <v>13.2053324993978</v>
       </c>
       <c r="N21">
-        <v>14.91113659189693</v>
+        <v>17.41956328006452</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.63862670261119</v>
+        <v>21.70348401080041</v>
       </c>
       <c r="C22">
-        <v>17.50303473116302</v>
+        <v>9.069788657018677</v>
       </c>
       <c r="D22">
-        <v>5.150886079780638</v>
+        <v>5.900534243081134</v>
       </c>
       <c r="E22">
-        <v>6.167802283872654</v>
+        <v>6.335023255559125</v>
       </c>
       <c r="F22">
-        <v>47.41604463659726</v>
+        <v>42.15328168870145</v>
       </c>
       <c r="G22">
-        <v>2.044278076674397</v>
+        <v>2.097006776797323</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>25.28430353590804</v>
+        <v>17.26871682634305</v>
       </c>
       <c r="L22">
-        <v>6.684811045092543</v>
+        <v>6.710360379790117</v>
       </c>
       <c r="M22">
-        <v>16.80547666637047</v>
+        <v>13.50601544317759</v>
       </c>
       <c r="N22">
-        <v>14.81991516875276</v>
+        <v>17.38425869413472</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.00789948980698</v>
+        <v>21.32349175343662</v>
       </c>
       <c r="C23">
-        <v>17.14841519923774</v>
+        <v>8.911961895172052</v>
       </c>
       <c r="D23">
-        <v>5.184365848705064</v>
+        <v>5.933047419785477</v>
       </c>
       <c r="E23">
-        <v>6.163160458724288</v>
+        <v>6.330508421227448</v>
       </c>
       <c r="F23">
-        <v>46.66451114083412</v>
+        <v>41.65139533015002</v>
       </c>
       <c r="G23">
-        <v>2.04946764227161</v>
+        <v>2.100859062740184</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>24.75702260412919</v>
+        <v>16.91955497928259</v>
       </c>
       <c r="L23">
-        <v>6.637623947185924</v>
+        <v>6.666375980298185</v>
       </c>
       <c r="M23">
-        <v>16.45751874496074</v>
+        <v>13.34544655634072</v>
       </c>
       <c r="N23">
-        <v>14.86789416566347</v>
+        <v>17.40249222644733</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.55702394272885</v>
+        <v>19.85516091961072</v>
       </c>
       <c r="C24">
-        <v>15.76934029930408</v>
+        <v>8.297794207500047</v>
       </c>
       <c r="D24">
-        <v>5.314597737609586</v>
+        <v>6.054701300927853</v>
       </c>
       <c r="E24">
-        <v>6.148122638739437</v>
+        <v>6.31768119635663</v>
       </c>
       <c r="F24">
-        <v>43.83167228392109</v>
+        <v>39.76827148018975</v>
       </c>
       <c r="G24">
-        <v>2.069120019163649</v>
+        <v>2.115562084623997</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>22.70385294409442</v>
+        <v>15.5525543567016</v>
       </c>
       <c r="L24">
-        <v>6.46584783331937</v>
+        <v>6.50517997543835</v>
       </c>
       <c r="M24">
-        <v>15.43789574540352</v>
+        <v>12.73941864803245</v>
       </c>
       <c r="N24">
-        <v>15.06441886636003</v>
+        <v>17.48448070123877</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.91329024049387</v>
+        <v>18.21013083144275</v>
       </c>
       <c r="C25">
-        <v>14.19725838316458</v>
+        <v>7.598632025753346</v>
       </c>
       <c r="D25">
-        <v>5.461588385790936</v>
+        <v>6.18384538933477</v>
       </c>
       <c r="E25">
-        <v>6.136354780881065</v>
+        <v>6.312450268468845</v>
       </c>
       <c r="F25">
-        <v>40.79939774106896</v>
+        <v>37.77591772413111</v>
       </c>
       <c r="G25">
-        <v>2.090502823220507</v>
+        <v>2.131753671337204</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>20.35882019680115</v>
+        <v>14.21805857397598</v>
       </c>
       <c r="L25">
-        <v>6.294466314642736</v>
+        <v>6.342553197237648</v>
       </c>
       <c r="M25">
-        <v>14.38748719653875</v>
+        <v>12.09154487598401</v>
       </c>
       <c r="N25">
-        <v>15.30391763246401</v>
+        <v>17.59789496080085</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_31/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.9491810640276</v>
+        <v>13.40820706583034</v>
       </c>
       <c r="C2">
-        <v>7.051071769739009</v>
+        <v>7.760205585686123</v>
       </c>
       <c r="D2">
-        <v>6.278128079885008</v>
+        <v>5.297847654134935</v>
       </c>
       <c r="E2">
-        <v>6.315516531729439</v>
+        <v>7.138020093026245</v>
       </c>
       <c r="F2">
-        <v>36.34486760187905</v>
+        <v>23.60659960797274</v>
       </c>
       <c r="G2">
-        <v>2.144043815027867</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>32.30781991842191</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.503201578897956</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.30848210470461</v>
       </c>
       <c r="K2">
-        <v>13.24938788372401</v>
+        <v>18.48575963352947</v>
       </c>
       <c r="L2">
-        <v>6.232244105501286</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>11.62134124085984</v>
+        <v>11.27410067181474</v>
       </c>
       <c r="N2">
-        <v>17.70056071224214</v>
+        <v>6.351736233834945</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>10.06510005039172</v>
+      </c>
+      <c r="P2">
+        <v>13.96523903411308</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.06643165710652</v>
+        <v>12.59364741827406</v>
       </c>
       <c r="C3">
-        <v>6.65922494358822</v>
+        <v>7.418546798877634</v>
       </c>
       <c r="D3">
-        <v>6.341951134386989</v>
+        <v>5.209643432118357</v>
       </c>
       <c r="E3">
-        <v>6.321687705265531</v>
+        <v>7.129011617788372</v>
       </c>
       <c r="F3">
-        <v>35.39946202438631</v>
+        <v>23.15453046470572</v>
       </c>
       <c r="G3">
-        <v>2.152639378911057</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>31.68580644206779</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.70273584046372</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>11.28678364507654</v>
       </c>
       <c r="K3">
-        <v>12.57271868249316</v>
+        <v>18.44316816281073</v>
       </c>
       <c r="L3">
-        <v>6.163261885508489</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>11.30814213380462</v>
+        <v>10.56942277579757</v>
       </c>
       <c r="N3">
-        <v>17.7810791820954</v>
+        <v>6.274973249815647</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.740754200788324</v>
+      </c>
+      <c r="P3">
+        <v>14.13347966641146</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.51191525931845</v>
+        <v>12.06636795837822</v>
       </c>
       <c r="C4">
-        <v>6.408380781134114</v>
+        <v>7.202367644502365</v>
       </c>
       <c r="D4">
-        <v>6.381229528142214</v>
+        <v>5.154313998579556</v>
       </c>
       <c r="E4">
-        <v>6.32742699430308</v>
+        <v>7.125017865348451</v>
       </c>
       <c r="F4">
-        <v>34.83186948932161</v>
+        <v>22.88347820245146</v>
       </c>
       <c r="G4">
-        <v>2.158059460787318</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>31.31294686368081</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.830377999901359</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.27737972003276</v>
       </c>
       <c r="K4">
-        <v>12.14838308293305</v>
+        <v>18.42233110650091</v>
       </c>
       <c r="L4">
-        <v>6.123718513075738</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>11.11900003752344</v>
+        <v>10.11210722279764</v>
       </c>
       <c r="N4">
-        <v>17.83561647603153</v>
+        <v>6.230840200719012</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>9.538942908842623</v>
+      </c>
+      <c r="P4">
+        <v>14.23860101804158</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.28306751317488</v>
+        <v>11.839372035078</v>
       </c>
       <c r="C5">
-        <v>6.30359382282789</v>
+        <v>7.117300869212731</v>
       </c>
       <c r="D5">
-        <v>6.39727589879411</v>
+        <v>5.132462445939626</v>
       </c>
       <c r="E5">
-        <v>6.330246466684321</v>
+        <v>7.122812549506831</v>
       </c>
       <c r="F5">
-        <v>34.60395193606544</v>
+        <v>22.76606615997592</v>
       </c>
       <c r="G5">
-        <v>2.160305491232656</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>31.14798168295374</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.886315867794479</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.27179480601157</v>
       </c>
       <c r="K5">
-        <v>11.97344376938743</v>
+        <v>18.408663955937</v>
       </c>
       <c r="L5">
-        <v>6.108305805006207</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>11.04279490673278</v>
+        <v>9.91865683174861</v>
       </c>
       <c r="N5">
-        <v>17.85908200044728</v>
+        <v>6.214265120109173</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>9.454870003413763</v>
+      </c>
+      <c r="P5">
+        <v>14.28060076896514</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.24490252654072</v>
+        <v>11.79465827573775</v>
       </c>
       <c r="C6">
-        <v>6.28603960344947</v>
+        <v>7.108732539019661</v>
       </c>
       <c r="D6">
-        <v>6.399943291505015</v>
+        <v>5.130022597145647</v>
       </c>
       <c r="E6">
-        <v>6.330743391799842</v>
+        <v>7.121293752363131</v>
       </c>
       <c r="F6">
-        <v>34.56631474214329</v>
+        <v>22.73605397785335</v>
       </c>
       <c r="G6">
-        <v>2.160680738124023</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>31.10189237843892</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.899028769910465</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.26760422064163</v>
       </c>
       <c r="K6">
-        <v>11.9442801438609</v>
+        <v>18.39854953572826</v>
       </c>
       <c r="L6">
-        <v>6.105788729437385</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>11.03019603779791</v>
+        <v>9.885061016405158</v>
       </c>
       <c r="N6">
-        <v>17.86305225510995</v>
+        <v>6.212353850598173</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>9.439308445604375</v>
+      </c>
+      <c r="P6">
+        <v>14.28600524725116</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.50884019991725</v>
+        <v>12.04564045548058</v>
       </c>
       <c r="C7">
-        <v>6.406977953835792</v>
+        <v>7.216456997972601</v>
       </c>
       <c r="D7">
-        <v>6.381445750735279</v>
+        <v>5.157323200735424</v>
       </c>
       <c r="E7">
-        <v>6.327463085059135</v>
+        <v>7.121782708002399</v>
       </c>
       <c r="F7">
-        <v>34.8287818368872</v>
+        <v>22.85305738491462</v>
       </c>
       <c r="G7">
-        <v>2.158089598578272</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>31.25956582237528</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.840004993536021</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11.26824898877381</v>
       </c>
       <c r="K7">
-        <v>12.14603166112942</v>
+        <v>18.4005363126008</v>
       </c>
       <c r="L7">
-        <v>6.123507819319948</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>11.11796867572684</v>
+        <v>10.10658178606523</v>
       </c>
       <c r="N7">
-        <v>17.83592796685748</v>
+        <v>6.232774018514584</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>9.533553277936635</v>
+      </c>
+      <c r="P7">
+        <v>14.2348437212359</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.64754825261596</v>
+        <v>13.11126313932643</v>
       </c>
       <c r="C8">
-        <v>6.918093257078631</v>
+        <v>7.663013327991592</v>
       </c>
       <c r="D8">
-        <v>6.300126218834673</v>
+        <v>5.272090369487463</v>
       </c>
       <c r="E8">
-        <v>6.317233624996497</v>
+        <v>7.130386339726622</v>
       </c>
       <c r="F8">
-        <v>36.01629834489054</v>
+        <v>23.41218640837432</v>
       </c>
       <c r="G8">
-        <v>2.146978950919153</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>32.02546844882943</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.58233381132361</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.28828599879102</v>
       </c>
       <c r="K8">
-        <v>13.01802357686999</v>
+        <v>18.44155701732444</v>
       </c>
       <c r="L8">
-        <v>6.207872257866495</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>11.51273838028125</v>
+        <v>11.03261296101884</v>
       </c>
       <c r="N8">
-        <v>17.72723963911243</v>
+        <v>6.327457831777447</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.948421148319204</v>
+      </c>
+      <c r="P8">
+        <v>14.01735392192778</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.77225891151292</v>
+        <v>15.01068259730027</v>
       </c>
       <c r="C9">
-        <v>7.839172434950097</v>
+        <v>8.461534694420326</v>
       </c>
       <c r="D9">
-        <v>6.140529473459917</v>
+        <v>5.48156028235093</v>
       </c>
       <c r="E9">
-        <v>6.31310680312965</v>
+        <v>7.165275185360623</v>
       </c>
       <c r="F9">
-        <v>38.4416880270977</v>
+        <v>24.60640105565269</v>
       </c>
       <c r="G9">
-        <v>2.126247489650366</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>33.6831933899921</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.102376750524952</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.3757608464513</v>
       </c>
       <c r="K9">
-        <v>14.65057271058194</v>
+        <v>18.60395365899013</v>
       </c>
       <c r="L9">
-        <v>6.395854335231204</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>12.30886387222677</v>
+        <v>12.65803157454788</v>
       </c>
       <c r="N9">
-        <v>17.55657008946696</v>
+        <v>6.532824760091485</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.74337033100383</v>
+      </c>
+      <c r="P9">
+        <v>13.61196843800575</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.25858348523919</v>
+        <v>16.27898412793307</v>
       </c>
       <c r="C10">
-        <v>8.46730742558592</v>
+        <v>9.022791124522486</v>
       </c>
       <c r="D10">
-        <v>6.021895536265498</v>
+        <v>5.630906695819713</v>
       </c>
       <c r="E10">
-        <v>6.320461561296058</v>
+        <v>7.197078238793951</v>
       </c>
       <c r="F10">
-        <v>40.27639595896117</v>
+        <v>25.49450505949953</v>
       </c>
       <c r="G10">
-        <v>2.1115494191839</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>34.91235134844983</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.778964790535891</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.45668565642443</v>
       </c>
       <c r="K10">
-        <v>15.93122562681392</v>
+        <v>18.74142079230323</v>
       </c>
       <c r="L10">
-        <v>6.548034310710325</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>12.903516704251</v>
+        <v>13.73283402942471</v>
       </c>
       <c r="N10">
-        <v>17.46014225139013</v>
+        <v>6.698496019656147</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>11.3039932216141</v>
+      </c>
+      <c r="P10">
+        <v>13.31953731608456</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.91759452401746</v>
+        <v>16.83367913281912</v>
       </c>
       <c r="C11">
-        <v>8.742916174629368</v>
+        <v>9.291385039495417</v>
       </c>
       <c r="D11">
-        <v>5.967303054484375</v>
+        <v>5.702877947677888</v>
       </c>
       <c r="E11">
-        <v>6.32622193196353</v>
+        <v>7.208209315375471</v>
       </c>
       <c r="F11">
-        <v>41.12170844954709</v>
+        <v>25.86136776672582</v>
       </c>
       <c r="G11">
-        <v>2.104951487950859</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>35.40465035346998</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.654519420144597</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.48418389015715</v>
       </c>
       <c r="K11">
-        <v>16.54463920983749</v>
+        <v>18.77668051008273</v>
       </c>
       <c r="L11">
-        <v>6.620398103425376</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>13.1755610895066</v>
+        <v>14.19282210260713</v>
       </c>
       <c r="N11">
-        <v>17.42333240603801</v>
+        <v>6.779922374940794</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>11.54739982433227</v>
+      </c>
+      <c r="P11">
+        <v>13.18162581501841</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.16465580023277</v>
+        <v>17.05042136329141</v>
       </c>
       <c r="C12">
-        <v>8.845870054808005</v>
+        <v>9.381014891853811</v>
       </c>
       <c r="D12">
-        <v>5.946510302329393</v>
+        <v>5.727019739572134</v>
       </c>
       <c r="E12">
-        <v>6.32876468566323</v>
+        <v>7.215375513890023</v>
       </c>
       <c r="F12">
-        <v>41.44331732205507</v>
+        <v>26.02323478185473</v>
       </c>
       <c r="G12">
-        <v>2.102463219900019</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>35.63161183666794</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.599452904301047</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11.50292029308458</v>
       </c>
       <c r="K12">
-        <v>16.77309078396745</v>
+        <v>18.80918280984067</v>
       </c>
       <c r="L12">
-        <v>6.648258731727259</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>13.27876244651429</v>
+        <v>14.36538280873348</v>
       </c>
       <c r="N12">
-        <v>17.41048028005061</v>
+        <v>6.809427858327203</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>11.64193568027931</v>
+      </c>
+      <c r="P12">
+        <v>13.13293498774956</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.11155763492241</v>
+        <v>17.00624938095926</v>
       </c>
       <c r="C13">
-        <v>8.823759143100066</v>
+        <v>9.359572196277833</v>
       </c>
       <c r="D13">
-        <v>5.950994229232814</v>
+        <v>5.721246674997267</v>
       </c>
       <c r="E13">
-        <v>6.328200746201966</v>
+        <v>7.214362200403285</v>
       </c>
       <c r="F13">
-        <v>41.37398612642398</v>
+        <v>25.99279193868347</v>
       </c>
       <c r="G13">
-        <v>2.102998700154763</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>35.5905594881331</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.609374021498558</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>11.50037235065968</v>
       </c>
       <c r="K13">
-        <v>16.72405817148965</v>
+        <v>18.80577084464321</v>
       </c>
       <c r="L13">
-        <v>6.64223794678266</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>13.25652844789431</v>
+        <v>14.32876902143397</v>
       </c>
       <c r="N13">
-        <v>17.41319863993096</v>
+        <v>6.802712349160676</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.62225814343829</v>
+      </c>
+      <c r="P13">
+        <v>13.14408271707807</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.93797038152332</v>
+        <v>16.85258937348718</v>
       </c>
       <c r="C14">
-        <v>8.751414288363364</v>
+        <v>9.297845574726328</v>
       </c>
       <c r="D14">
-        <v>5.965595004705044</v>
+        <v>5.704620341369022</v>
       </c>
       <c r="E14">
-        <v>6.326423797227593</v>
+        <v>7.2090239995747</v>
       </c>
       <c r="F14">
-        <v>41.14813723179533</v>
+        <v>25.87656893292426</v>
       </c>
       <c r="G14">
-        <v>2.104746586738243</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>35.42666157133968</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.649164228241792</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>11.48635727173169</v>
       </c>
       <c r="K14">
-        <v>16.56351018587086</v>
+        <v>18.78087967981713</v>
       </c>
       <c r="L14">
-        <v>6.622680988550504</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>13.18404800265725</v>
+        <v>14.20725781000921</v>
       </c>
       <c r="N14">
-        <v>17.42225282841146</v>
+        <v>6.782195481439508</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>11.55546947822121</v>
+      </c>
+      <c r="P14">
+        <v>13.17790108916379</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.83131842077991</v>
+        <v>16.75324535095031</v>
       </c>
       <c r="C15">
-        <v>8.706918407811571</v>
+        <v>9.264260016024371</v>
       </c>
       <c r="D15">
-        <v>5.97452186504005</v>
+        <v>5.695559931848068</v>
       </c>
       <c r="E15">
-        <v>6.325382872382962</v>
+        <v>7.204719130042508</v>
       </c>
       <c r="F15">
-        <v>41.00999432002176</v>
+        <v>25.79662763190464</v>
       </c>
       <c r="G15">
-        <v>2.105818471872651</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>35.31075668666509</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.677431845913932</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>11.47486674594356</v>
       </c>
       <c r="K15">
-        <v>16.46467425761599</v>
+        <v>18.75859223999322</v>
       </c>
       <c r="L15">
-        <v>6.610761671367156</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>13.13967473782722</v>
+        <v>14.13158084152586</v>
       </c>
       <c r="N15">
-        <v>17.4279426097362</v>
+        <v>6.770360868842205</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>11.5131663739243</v>
+      </c>
+      <c r="P15">
+        <v>13.19731834502761</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.21516760286429</v>
+        <v>16.20261549500951</v>
       </c>
       <c r="C16">
-        <v>8.449095381429272</v>
+        <v>9.042339032569087</v>
       </c>
       <c r="D16">
-        <v>6.025448219470928</v>
+        <v>5.635880984710549</v>
       </c>
       <c r="E16">
-        <v>6.32013488725105</v>
+        <v>7.187359468584605</v>
       </c>
       <c r="F16">
-        <v>40.22136453470255</v>
+        <v>25.3954341489917</v>
       </c>
       <c r="G16">
-        <v>2.111982180405808</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>34.74711617999868</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.816966240033486</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>11.42959219193026</v>
       </c>
       <c r="K16">
-        <v>15.89059417986787</v>
+        <v>18.67856085701516</v>
       </c>
       <c r="L16">
-        <v>6.543368844705016</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>12.88576542392382</v>
+        <v>13.6955798261614</v>
       </c>
       <c r="N16">
-        <v>17.46269585900529</v>
+        <v>6.69902037861093</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>11.27707623700722</v>
+      </c>
+      <c r="P16">
+        <v>13.31735166132404</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.83276008850189</v>
+        <v>15.86396770082771</v>
       </c>
       <c r="C17">
-        <v>8.288362241670058</v>
+        <v>8.904403541935018</v>
       </c>
       <c r="D17">
-        <v>6.056509454859169</v>
+        <v>5.598865680653951</v>
       </c>
       <c r="E17">
-        <v>6.317543656107411</v>
+        <v>7.177186526206036</v>
       </c>
       <c r="F17">
-        <v>39.74027139799241</v>
+        <v>25.15046193286422</v>
       </c>
       <c r="G17">
-        <v>2.115784346208203</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>34.40312446508185</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.903952018644895</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.40317698980721</v>
       </c>
       <c r="K17">
-        <v>15.53145226751412</v>
+        <v>18.63141781896689</v>
       </c>
       <c r="L17">
-        <v>6.502833370221131</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>12.73036326777857</v>
+        <v>13.42163346998498</v>
       </c>
       <c r="N17">
-        <v>17.48587218928829</v>
+        <v>6.655966100274252</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>11.13075641808545</v>
+      </c>
+      <c r="P17">
+        <v>13.39135537363032</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.61119679373885</v>
+        <v>15.68676319122585</v>
       </c>
       <c r="C18">
-        <v>8.19495580289859</v>
+        <v>8.812843586737138</v>
       </c>
       <c r="D18">
-        <v>6.074318159915037</v>
+        <v>5.574473660274997</v>
       </c>
       <c r="E18">
-        <v>6.31627961978133</v>
+        <v>7.174250606450149</v>
       </c>
       <c r="F18">
-        <v>39.46456563856555</v>
+        <v>25.03311931727415</v>
       </c>
       <c r="G18">
-        <v>2.117979723563165</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>34.24690991893096</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.944800528118867</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.39619862940925</v>
       </c>
       <c r="K18">
-        <v>15.32228664433842</v>
+        <v>18.6234522051411</v>
       </c>
       <c r="L18">
-        <v>6.479813153295169</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>12.64112587969838</v>
+        <v>13.26375513646199</v>
       </c>
       <c r="N18">
-        <v>17.49986196365746</v>
+        <v>6.629691978272268</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>11.04942942218828</v>
+      </c>
+      <c r="P18">
+        <v>13.43746779095821</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.53590380502003</v>
+        <v>15.61678068513228</v>
       </c>
       <c r="C19">
-        <v>8.163164441193567</v>
+        <v>8.790628965803476</v>
       </c>
       <c r="D19">
-        <v>6.080338969146302</v>
+        <v>5.568467913995589</v>
       </c>
       <c r="E19">
-        <v>6.315890102058097</v>
+        <v>7.171172303142479</v>
       </c>
       <c r="F19">
-        <v>39.37139077758548</v>
+        <v>24.97566660564518</v>
       </c>
       <c r="G19">
-        <v>2.118724567159312</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>34.16259416157328</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.966125617512101</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.38796391015224</v>
       </c>
       <c r="K19">
-        <v>15.25101728274775</v>
+        <v>18.60665255549363</v>
       </c>
       <c r="L19">
-        <v>6.472069330850973</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>12.61093799275429</v>
+        <v>13.20829085218341</v>
       </c>
       <c r="N19">
-        <v>17.50470982015703</v>
+        <v>6.622209962587331</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>11.0192218191665</v>
+      </c>
+      <c r="P19">
+        <v>13.45047723391339</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.87363524983829</v>
+        <v>15.89977632743404</v>
       </c>
       <c r="C20">
-        <v>8.305571315478003</v>
+        <v>8.918255539864358</v>
       </c>
       <c r="D20">
-        <v>6.05320902821656</v>
+        <v>5.602589462908056</v>
       </c>
       <c r="E20">
-        <v>6.317795968909796</v>
+        <v>7.178466241500855</v>
       </c>
       <c r="F20">
-        <v>39.7913807782606</v>
+        <v>25.17829638383062</v>
       </c>
       <c r="G20">
-        <v>2.1153787394737</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>34.44286625211287</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.893864548989081</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.40654287081464</v>
       </c>
       <c r="K20">
-        <v>15.56995144802075</v>
+        <v>18.63780757309058</v>
       </c>
       <c r="L20">
-        <v>6.507117892630651</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>12.74689130470087</v>
+        <v>13.451203718114</v>
       </c>
       <c r="N20">
-        <v>17.48333628696834</v>
+        <v>6.660383249286481</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>11.14664862296937</v>
+      </c>
+      <c r="P20">
+        <v>13.38372936610037</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.98902484507662</v>
+        <v>16.88499497655288</v>
       </c>
       <c r="C21">
-        <v>8.772701680867367</v>
+        <v>9.32829613462113</v>
       </c>
       <c r="D21">
-        <v>5.961309906927722</v>
+        <v>5.712784469315594</v>
       </c>
       <c r="E21">
-        <v>6.326935802807117</v>
+        <v>7.207548452248943</v>
       </c>
       <c r="F21">
-        <v>41.21443366782699</v>
+        <v>25.88573813162711</v>
       </c>
       <c r="G21">
-        <v>2.104232933479721</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>35.43058872581961</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.648396580807887</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.48192345849123</v>
       </c>
       <c r="K21">
-        <v>16.61077008386824</v>
+        <v>18.76778003659219</v>
       </c>
       <c r="L21">
-        <v>6.628412846529301</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>13.2053324993978</v>
+        <v>14.24085329962028</v>
       </c>
       <c r="N21">
-        <v>17.41956328006452</v>
+        <v>6.790140951834947</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.57150139772813</v>
+      </c>
+      <c r="P21">
+        <v>13.16421655472478</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.70348401080041</v>
+        <v>17.51960330535255</v>
       </c>
       <c r="C22">
-        <v>9.069788657018677</v>
+        <v>9.574842267622364</v>
       </c>
       <c r="D22">
-        <v>5.900534243081134</v>
+        <v>5.779301183910737</v>
       </c>
       <c r="E22">
-        <v>6.335023255559125</v>
+        <v>7.231984989529891</v>
       </c>
       <c r="F22">
-        <v>42.15328168870145</v>
+        <v>26.38315861443117</v>
       </c>
       <c r="G22">
-        <v>2.097006776797323</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>36.13758679479254</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.523778579209753</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.5465660530998</v>
       </c>
       <c r="K22">
-        <v>17.26871682634305</v>
+        <v>18.88513336327017</v>
       </c>
       <c r="L22">
-        <v>6.710360379790117</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>13.50601544317759</v>
+        <v>14.73865010334671</v>
       </c>
       <c r="N22">
-        <v>17.38425869413472</v>
+        <v>6.87477486684416</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>11.84861832369191</v>
+      </c>
+      <c r="P22">
+        <v>13.02663753073928</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.32349175343662</v>
+        <v>17.1989261380972</v>
       </c>
       <c r="C23">
-        <v>8.911961895172052</v>
+        <v>9.429091488211762</v>
       </c>
       <c r="D23">
-        <v>5.933047419785477</v>
+        <v>5.739985818743707</v>
       </c>
       <c r="E23">
-        <v>6.330508421227448</v>
+        <v>7.222453693064063</v>
       </c>
       <c r="F23">
-        <v>41.65139533015002</v>
+        <v>26.14731359270748</v>
       </c>
       <c r="G23">
-        <v>2.100859062740184</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>35.81277188560811</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.555870622634766</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.52190532791495</v>
       </c>
       <c r="K23">
-        <v>16.91955497928259</v>
+        <v>18.84642330899933</v>
       </c>
       <c r="L23">
-        <v>6.666375980298185</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>13.34544655634072</v>
+        <v>14.47750685887827</v>
       </c>
       <c r="N23">
-        <v>17.40249222644733</v>
+        <v>6.827083837163476</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.70553237829852</v>
+      </c>
+      <c r="P23">
+        <v>13.10448407951072</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.85516091961072</v>
+        <v>15.9094288867996</v>
       </c>
       <c r="C24">
-        <v>8.297794207500047</v>
+        <v>8.887766880455841</v>
       </c>
       <c r="D24">
-        <v>6.054701300927853</v>
+        <v>5.594667149801017</v>
       </c>
       <c r="E24">
-        <v>6.31768119635663</v>
+        <v>7.183682948728277</v>
       </c>
       <c r="F24">
-        <v>39.76827148018975</v>
+        <v>25.21434009579488</v>
       </c>
       <c r="G24">
-        <v>2.115562084623997</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>34.51106379442898</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.878687128478019</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.42134100029432</v>
       </c>
       <c r="K24">
-        <v>15.5525543567016</v>
+        <v>18.67390574912616</v>
       </c>
       <c r="L24">
-        <v>6.50517997543835</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>12.73941864803245</v>
+        <v>13.44219483935034</v>
       </c>
       <c r="N24">
-        <v>17.48448070123877</v>
+        <v>6.654646250961591</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>11.14651905571345</v>
+      </c>
+      <c r="P24">
+        <v>13.39438541265169</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.21013083144275</v>
+        <v>14.49358724868433</v>
       </c>
       <c r="C25">
-        <v>7.598632025753346</v>
+        <v>8.275898312244783</v>
       </c>
       <c r="D25">
-        <v>6.18384538933477</v>
+        <v>5.432021529464215</v>
       </c>
       <c r="E25">
-        <v>6.312450268468845</v>
+        <v>7.148808941823588</v>
       </c>
       <c r="F25">
-        <v>37.77591772413111</v>
+        <v>24.22977038064743</v>
       </c>
       <c r="G25">
-        <v>2.131753671337204</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>33.14133167491698</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.244634175179682</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.33245805209911</v>
       </c>
       <c r="K25">
-        <v>14.21805857397598</v>
+        <v>18.51679870211052</v>
       </c>
       <c r="L25">
-        <v>6.342553197237648</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>12.09154487598401</v>
+        <v>12.23462042570397</v>
       </c>
       <c r="N25">
-        <v>17.59789496080085</v>
+        <v>6.478537741966747</v>
       </c>
       <c r="O25">
+        <v>10.52458011787948</v>
+      </c>
+      <c r="P25">
+        <v>13.71303583483305</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_31/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.40820706583034</v>
+        <v>12.88398807666058</v>
       </c>
       <c r="C2">
-        <v>7.760205585686123</v>
+        <v>7.83391725329059</v>
       </c>
       <c r="D2">
-        <v>5.297847654134935</v>
+        <v>5.300933084994922</v>
       </c>
       <c r="E2">
-        <v>7.138020093026245</v>
+        <v>6.918635468814896</v>
       </c>
       <c r="F2">
-        <v>23.60659960797274</v>
+        <v>22.52861671823339</v>
       </c>
       <c r="G2">
-        <v>32.30781991842191</v>
+        <v>30.08767843093485</v>
       </c>
       <c r="I2">
-        <v>3.503201578897956</v>
+        <v>3.318247833893661</v>
       </c>
       <c r="J2">
-        <v>11.30848210470461</v>
+        <v>11.11288501922733</v>
       </c>
       <c r="K2">
-        <v>18.48575963352947</v>
+        <v>17.45064325796267</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>14.06851217114053</v>
       </c>
       <c r="M2">
-        <v>11.27410067181474</v>
+        <v>11.78967410584982</v>
       </c>
       <c r="N2">
-        <v>6.351736233834945</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>10.06510005039172</v>
+        <v>11.26080121018644</v>
       </c>
       <c r="P2">
-        <v>13.96523903411308</v>
+        <v>6.455395394746642</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.865952827409641</v>
+      </c>
+      <c r="R2">
+        <v>13.65596725595156</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.59364741827406</v>
+        <v>12.10926742618972</v>
       </c>
       <c r="C3">
-        <v>7.418546798877634</v>
+        <v>7.406798058966007</v>
       </c>
       <c r="D3">
-        <v>5.209643432118357</v>
+        <v>5.182721318728289</v>
       </c>
       <c r="E3">
-        <v>7.129011617788372</v>
+        <v>6.91841097000461</v>
       </c>
       <c r="F3">
-        <v>23.15453046470572</v>
+        <v>22.15051206392231</v>
       </c>
       <c r="G3">
-        <v>31.68580644206779</v>
+        <v>29.6526076539817</v>
       </c>
       <c r="I3">
-        <v>3.70273584046372</v>
+        <v>3.491907391354176</v>
       </c>
       <c r="J3">
-        <v>11.28678364507654</v>
+        <v>11.06840792088469</v>
       </c>
       <c r="K3">
-        <v>18.44316816281073</v>
+        <v>17.4594585513913</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>14.15724393527254</v>
       </c>
       <c r="M3">
-        <v>10.56942277579757</v>
+        <v>11.73455927879138</v>
       </c>
       <c r="N3">
-        <v>6.274973249815647</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.740754200788324</v>
+        <v>10.57427503288312</v>
       </c>
       <c r="P3">
-        <v>14.13347966641146</v>
+        <v>6.37243662672895</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.545443110462074</v>
+      </c>
+      <c r="R3">
+        <v>13.82147120458616</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.06636795837822</v>
+        <v>11.60605348439346</v>
       </c>
       <c r="C4">
-        <v>7.202367644502365</v>
+        <v>7.135383707422399</v>
       </c>
       <c r="D4">
-        <v>5.154313998579556</v>
+        <v>5.10861768094562</v>
       </c>
       <c r="E4">
-        <v>7.125017865348451</v>
+        <v>6.919645246022722</v>
       </c>
       <c r="F4">
-        <v>22.88347820245146</v>
+        <v>21.92347411886139</v>
       </c>
       <c r="G4">
-        <v>31.31294686368081</v>
+        <v>29.39761290085995</v>
       </c>
       <c r="I4">
-        <v>3.830377999901359</v>
+        <v>3.603372653992883</v>
       </c>
       <c r="J4">
-        <v>11.27737972003276</v>
+        <v>11.04222390315959</v>
       </c>
       <c r="K4">
-        <v>18.42233110650091</v>
+        <v>17.46849781293091</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>14.21061013712713</v>
       </c>
       <c r="M4">
-        <v>10.11210722279764</v>
+        <v>11.72062144191936</v>
       </c>
       <c r="N4">
-        <v>6.230840200719012</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>9.538942908842623</v>
+        <v>10.12878578176425</v>
       </c>
       <c r="P4">
-        <v>14.23860101804158</v>
+        <v>6.324545392404223</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.345259972178168</v>
+      </c>
+      <c r="R4">
+        <v>13.92484081136063</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.839372035078</v>
+        <v>11.3887870024342</v>
       </c>
       <c r="C5">
-        <v>7.117300869212731</v>
+        <v>7.02779800654431</v>
       </c>
       <c r="D5">
-        <v>5.132462445939626</v>
+        <v>5.079135164986215</v>
       </c>
       <c r="E5">
-        <v>7.122812549506831</v>
+        <v>6.919582031896433</v>
       </c>
       <c r="F5">
-        <v>22.76606615997592</v>
+        <v>21.82381921419758</v>
       </c>
       <c r="G5">
-        <v>31.14798168295374</v>
+        <v>29.28182186474898</v>
       </c>
       <c r="I5">
-        <v>3.886315867794479</v>
+        <v>3.653063797657117</v>
       </c>
       <c r="J5">
-        <v>11.27179480601157</v>
+        <v>11.02912889853664</v>
       </c>
       <c r="K5">
-        <v>18.408663955937</v>
+        <v>17.46691042035355</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>14.22644667349993</v>
       </c>
       <c r="M5">
-        <v>9.91865683174861</v>
+        <v>11.71625797778061</v>
       </c>
       <c r="N5">
-        <v>6.214265120109173</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>9.454870003413763</v>
+        <v>9.940372321086688</v>
       </c>
       <c r="P5">
-        <v>14.28060076896514</v>
+        <v>6.306441942751483</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.261676000205588</v>
+      </c>
+      <c r="R5">
+        <v>13.96631295153495</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.79465827573775</v>
+        <v>11.34575857031608</v>
       </c>
       <c r="C6">
-        <v>7.108732539019661</v>
+        <v>7.016255184522868</v>
       </c>
       <c r="D6">
-        <v>5.130022597145647</v>
+        <v>5.075542840271121</v>
       </c>
       <c r="E6">
-        <v>7.121293752363131</v>
+        <v>6.91848173750427</v>
       </c>
       <c r="F6">
-        <v>22.73605397785335</v>
+        <v>21.79698890033527</v>
       </c>
       <c r="G6">
-        <v>31.10189237843892</v>
+        <v>29.24453549257442</v>
       </c>
       <c r="I6">
-        <v>3.899028769910465</v>
+        <v>3.665292768639647</v>
       </c>
       <c r="J6">
-        <v>11.26760422064163</v>
+        <v>11.02366406099608</v>
       </c>
       <c r="K6">
-        <v>18.39854953572826</v>
+        <v>17.45917928846805</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>14.22218827056363</v>
       </c>
       <c r="M6">
-        <v>9.885061016405158</v>
+        <v>11.71133275670836</v>
       </c>
       <c r="N6">
-        <v>6.212353850598173</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>9.439308445604375</v>
+        <v>9.907666414953177</v>
       </c>
       <c r="P6">
-        <v>14.28600524725116</v>
+        <v>6.304262222182136</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.246199901789282</v>
+      </c>
+      <c r="R6">
+        <v>13.97187985728981</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.04564045548058</v>
+        <v>11.58157100657389</v>
       </c>
       <c r="C7">
-        <v>7.216456997972601</v>
+        <v>7.143574161516655</v>
       </c>
       <c r="D7">
-        <v>5.157323200735424</v>
+        <v>5.114269869361213</v>
       </c>
       <c r="E7">
-        <v>7.121782708002399</v>
+        <v>6.918077212514421</v>
       </c>
       <c r="F7">
-        <v>22.85305738491462</v>
+        <v>21.87595811525732</v>
       </c>
       <c r="G7">
-        <v>31.25956582237528</v>
+        <v>29.41647228884629</v>
       </c>
       <c r="I7">
-        <v>3.840004993536021</v>
+        <v>3.615070200652259</v>
       </c>
       <c r="J7">
-        <v>11.26824898877381</v>
+        <v>10.99131082453883</v>
       </c>
       <c r="K7">
-        <v>18.4005363126008</v>
+        <v>17.43911970747679</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>14.18448252833204</v>
       </c>
       <c r="M7">
-        <v>10.10658178606523</v>
+        <v>11.7023972015793</v>
       </c>
       <c r="N7">
-        <v>6.232774018514584</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>9.533553277936635</v>
+        <v>10.11756566569656</v>
       </c>
       <c r="P7">
-        <v>14.2348437212359</v>
+        <v>6.3261536065735</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.338385194328303</v>
+      </c>
+      <c r="R7">
+        <v>13.9200137806317</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.11126313932643</v>
+        <v>12.5884788572162</v>
       </c>
       <c r="C8">
-        <v>7.663013327991592</v>
+        <v>7.68612591738598</v>
       </c>
       <c r="D8">
-        <v>5.272090369487463</v>
+        <v>5.273406733785045</v>
       </c>
       <c r="E8">
-        <v>7.130386339726622</v>
+        <v>6.919192877274324</v>
       </c>
       <c r="F8">
-        <v>23.41218640837432</v>
+        <v>22.30243005894397</v>
       </c>
       <c r="G8">
-        <v>32.02546844882943</v>
+        <v>30.10050088410127</v>
       </c>
       <c r="I8">
-        <v>3.58233381132361</v>
+        <v>3.392533030361639</v>
       </c>
       <c r="J8">
-        <v>11.28828599879102</v>
+        <v>10.94924315140358</v>
       </c>
       <c r="K8">
-        <v>18.44155701732444</v>
+        <v>17.3970399717328</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>14.0521659133182</v>
       </c>
       <c r="M8">
-        <v>11.03261296101884</v>
+        <v>11.72852688325508</v>
       </c>
       <c r="N8">
-        <v>6.327457831777447</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>9.948421148319204</v>
+        <v>11.00746252894088</v>
       </c>
       <c r="P8">
-        <v>14.01735392192778</v>
+        <v>6.428031306314677</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.745849288797489</v>
+      </c>
+      <c r="R8">
+        <v>13.70269594719843</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.01068259730027</v>
+        <v>14.42191421450675</v>
       </c>
       <c r="C9">
-        <v>8.461534694420326</v>
+        <v>8.675357781674485</v>
       </c>
       <c r="D9">
-        <v>5.48156028235093</v>
+        <v>5.55715036996739</v>
       </c>
       <c r="E9">
-        <v>7.165275185360623</v>
+        <v>6.932408909378482</v>
       </c>
       <c r="F9">
-        <v>24.60640105565269</v>
+        <v>23.29223490636605</v>
       </c>
       <c r="G9">
-        <v>33.6831933899921</v>
+        <v>31.36483420718703</v>
       </c>
       <c r="I9">
-        <v>3.102376750524952</v>
+        <v>2.974482228970052</v>
       </c>
       <c r="J9">
-        <v>11.3757608464513</v>
+        <v>11.04162697580522</v>
       </c>
       <c r="K9">
-        <v>18.60395365899013</v>
+        <v>17.41309035733012</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.84269321434934</v>
       </c>
       <c r="M9">
-        <v>12.65803157454788</v>
+        <v>11.98265738571493</v>
       </c>
       <c r="N9">
-        <v>6.532824760091485</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>10.74337033100383</v>
+        <v>12.58833275131685</v>
       </c>
       <c r="P9">
-        <v>13.61196843800575</v>
+        <v>6.648706242169506</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.52629892469905</v>
+      </c>
+      <c r="R9">
+        <v>13.30203998879627</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.27898412793307</v>
+        <v>15.65005800127029</v>
       </c>
       <c r="C10">
-        <v>9.022791124522486</v>
+        <v>9.32637991919729</v>
       </c>
       <c r="D10">
-        <v>5.630906695819713</v>
+        <v>5.772737117338231</v>
       </c>
       <c r="E10">
-        <v>7.197078238793951</v>
+        <v>6.956352080769318</v>
       </c>
       <c r="F10">
-        <v>25.49450505949953</v>
+        <v>23.93194126480621</v>
       </c>
       <c r="G10">
-        <v>34.91235134844983</v>
+        <v>32.70930591085429</v>
       </c>
       <c r="I10">
-        <v>2.778964790535891</v>
+        <v>2.69972184846579</v>
       </c>
       <c r="J10">
-        <v>11.45668565642443</v>
+        <v>10.88191839372481</v>
       </c>
       <c r="K10">
-        <v>18.74142079230323</v>
+        <v>17.38590403401524</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.64011566395239</v>
       </c>
       <c r="M10">
-        <v>13.73283402942471</v>
+        <v>12.21561434676529</v>
       </c>
       <c r="N10">
-        <v>6.698496019656147</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>11.3039932216141</v>
+        <v>13.60649113515813</v>
       </c>
       <c r="P10">
-        <v>13.31953731608456</v>
+        <v>6.823824353587693</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>11.06519986198632</v>
+      </c>
+      <c r="R10">
+        <v>13.00500979938001</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.83367913281912</v>
+        <v>16.12343517808406</v>
       </c>
       <c r="C11">
-        <v>9.291385039495417</v>
+        <v>9.57292656126865</v>
       </c>
       <c r="D11">
-        <v>5.702877947677888</v>
+        <v>5.899634379068536</v>
       </c>
       <c r="E11">
-        <v>7.208209315375471</v>
+        <v>6.979937263786515</v>
       </c>
       <c r="F11">
-        <v>25.86136776672582</v>
+        <v>24.02133066040066</v>
       </c>
       <c r="G11">
-        <v>35.40465035346998</v>
+        <v>33.93092345855938</v>
       </c>
       <c r="I11">
-        <v>2.654519420144597</v>
+        <v>2.605339512694358</v>
       </c>
       <c r="J11">
-        <v>11.48418389015715</v>
+        <v>10.41547591137385</v>
       </c>
       <c r="K11">
-        <v>18.77668051008273</v>
+        <v>17.25972902903051</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>13.4636959653542</v>
       </c>
       <c r="M11">
-        <v>14.19282210260713</v>
+        <v>12.2436492736858</v>
       </c>
       <c r="N11">
-        <v>6.779922374940794</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>11.54739982433227</v>
+        <v>13.9967727033282</v>
       </c>
       <c r="P11">
-        <v>13.18162581501841</v>
+        <v>6.906508489051297</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>11.28433823002618</v>
+      </c>
+      <c r="R11">
+        <v>12.85324552222045</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.05042136329141</v>
+        <v>16.3057705314485</v>
       </c>
       <c r="C12">
-        <v>9.381014891853811</v>
+        <v>9.64577804883038</v>
       </c>
       <c r="D12">
-        <v>5.727019739572134</v>
+        <v>5.947383113257806</v>
       </c>
       <c r="E12">
-        <v>7.215375513890023</v>
+        <v>6.99384904460027</v>
       </c>
       <c r="F12">
-        <v>26.02323478185473</v>
+        <v>24.05712074873152</v>
       </c>
       <c r="G12">
-        <v>35.63161183666794</v>
+        <v>34.51829761403732</v>
       </c>
       <c r="I12">
-        <v>2.599452904301047</v>
+        <v>2.560630031744524</v>
       </c>
       <c r="J12">
-        <v>11.50292029308458</v>
+        <v>10.20669661643037</v>
       </c>
       <c r="K12">
-        <v>18.80918280984067</v>
+        <v>17.21836417030738</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>13.40192668414398</v>
       </c>
       <c r="M12">
-        <v>14.36538280873348</v>
+        <v>12.26070971584241</v>
       </c>
       <c r="N12">
-        <v>6.809427858327203</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>11.64193568027931</v>
+        <v>14.1379177024777</v>
       </c>
       <c r="P12">
-        <v>13.13293498774956</v>
+        <v>6.936125536879229</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>11.36782439087325</v>
+      </c>
+      <c r="R12">
+        <v>12.79681294760967</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.00624938095926</v>
+        <v>16.26908512822123</v>
       </c>
       <c r="C13">
-        <v>9.359572196277833</v>
+        <v>9.628061819524232</v>
       </c>
       <c r="D13">
-        <v>5.721246674997267</v>
+        <v>5.936317277158007</v>
       </c>
       <c r="E13">
-        <v>7.214362200403285</v>
+        <v>6.991250069967132</v>
       </c>
       <c r="F13">
-        <v>25.99279193868347</v>
+        <v>24.05457818255391</v>
       </c>
       <c r="G13">
-        <v>35.5905594881331</v>
+        <v>34.39564354313085</v>
       </c>
       <c r="I13">
-        <v>2.609374021498558</v>
+        <v>2.56798140005544</v>
       </c>
       <c r="J13">
-        <v>11.50037235065968</v>
+        <v>10.25445404007459</v>
       </c>
       <c r="K13">
-        <v>18.80577084464321</v>
+        <v>17.23106967979429</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>13.41790555046333</v>
       </c>
       <c r="M13">
-        <v>14.32876902143397</v>
+        <v>12.26006173067695</v>
       </c>
       <c r="N13">
-        <v>6.802712349160676</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>11.62225814343829</v>
+        <v>14.10827034543512</v>
       </c>
       <c r="P13">
-        <v>13.14408271707807</v>
+        <v>6.929411999198607</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.35059220235408</v>
+      </c>
+      <c r="R13">
+        <v>12.80945904248889</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.85258937348718</v>
+        <v>16.13955090730707</v>
       </c>
       <c r="C14">
-        <v>9.297845574726328</v>
+        <v>9.578060115839367</v>
       </c>
       <c r="D14">
-        <v>5.704620341369022</v>
+        <v>5.903227955599968</v>
       </c>
       <c r="E14">
-        <v>7.2090239995747</v>
+        <v>6.981247839434521</v>
       </c>
       <c r="F14">
-        <v>25.87656893292426</v>
+        <v>24.02650046097168</v>
       </c>
       <c r="G14">
-        <v>35.42666157133968</v>
+        <v>33.98079694570227</v>
       </c>
       <c r="I14">
-        <v>2.649164228241792</v>
+        <v>2.600689934239736</v>
       </c>
       <c r="J14">
-        <v>11.48635727173169</v>
+        <v>10.39955976994305</v>
       </c>
       <c r="K14">
-        <v>18.78087967981713</v>
+        <v>17.2579553042975</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.45976867844781</v>
       </c>
       <c r="M14">
-        <v>14.20725781000921</v>
+        <v>12.2463452934306</v>
       </c>
       <c r="N14">
-        <v>6.782195481439508</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>11.55546947822121</v>
+        <v>14.00871482430413</v>
       </c>
       <c r="P14">
-        <v>13.17790108916379</v>
+        <v>6.908802217998171</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>11.2915287590405</v>
+      </c>
+      <c r="R14">
+        <v>12.84881771000806</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.75324535095031</v>
+        <v>16.05469588244292</v>
       </c>
       <c r="C15">
-        <v>9.264260016024371</v>
+        <v>9.551153655539681</v>
       </c>
       <c r="D15">
-        <v>5.695559931848068</v>
+        <v>5.884617629763094</v>
       </c>
       <c r="E15">
-        <v>7.204719130042508</v>
+        <v>6.974445147539169</v>
       </c>
       <c r="F15">
-        <v>25.79662763190464</v>
+        <v>23.99820697575815</v>
       </c>
       <c r="G15">
-        <v>35.31075668666509</v>
+        <v>33.72268863999596</v>
       </c>
       <c r="I15">
-        <v>2.677431845913932</v>
+        <v>2.625331849890852</v>
       </c>
       <c r="J15">
-        <v>11.47486674594356</v>
+        <v>10.48110051533041</v>
       </c>
       <c r="K15">
-        <v>18.75859223999322</v>
+        <v>17.2664597254668</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.47975182971984</v>
       </c>
       <c r="M15">
-        <v>14.13158084152586</v>
+        <v>12.23169111678978</v>
       </c>
       <c r="N15">
-        <v>6.770360868842205</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>11.5131663739243</v>
+        <v>13.94588068688072</v>
       </c>
       <c r="P15">
-        <v>13.19731834502761</v>
+        <v>6.896842592113983</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>11.25375135107765</v>
+      </c>
+      <c r="R15">
+        <v>12.87186381381737</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.20261549500951</v>
+        <v>15.57969675865775</v>
       </c>
       <c r="C16">
-        <v>9.042339032569087</v>
+        <v>9.350322541353014</v>
       </c>
       <c r="D16">
-        <v>5.635880984710549</v>
+        <v>5.775496164917286</v>
       </c>
       <c r="E16">
-        <v>7.187359468584605</v>
+        <v>6.946675487194357</v>
       </c>
       <c r="F16">
-        <v>25.3954341489917</v>
+        <v>23.85075444992544</v>
       </c>
       <c r="G16">
-        <v>34.74711617999868</v>
+        <v>32.51098752220017</v>
       </c>
       <c r="I16">
-        <v>2.816966240033486</v>
+        <v>2.740985189355357</v>
       </c>
       <c r="J16">
-        <v>11.42959219193026</v>
+        <v>10.88364399140423</v>
       </c>
       <c r="K16">
-        <v>18.67856085701516</v>
+        <v>17.33660299704104</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.60968111600082</v>
       </c>
       <c r="M16">
-        <v>13.6955798261614</v>
+        <v>12.16816693944349</v>
       </c>
       <c r="N16">
-        <v>6.69902037861093</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>11.27707623700722</v>
+        <v>13.5733731276273</v>
       </c>
       <c r="P16">
-        <v>13.31735166132404</v>
+        <v>6.824092016119097</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>11.03985688552193</v>
+      </c>
+      <c r="R16">
+        <v>13.00676472972548</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.86396770082771</v>
+        <v>15.27335158855677</v>
       </c>
       <c r="C17">
-        <v>8.904403541935018</v>
+        <v>9.212053282742218</v>
       </c>
       <c r="D17">
-        <v>5.598865680653951</v>
+        <v>5.713381216554479</v>
       </c>
       <c r="E17">
-        <v>7.177186526206036</v>
+        <v>6.933654901469199</v>
       </c>
       <c r="F17">
-        <v>25.15046193286422</v>
+        <v>23.7262677292503</v>
       </c>
       <c r="G17">
-        <v>34.40312446508185</v>
+        <v>31.9151481993084</v>
       </c>
       <c r="I17">
-        <v>2.903952018644895</v>
+        <v>2.814297519198397</v>
       </c>
       <c r="J17">
-        <v>11.40317698980721</v>
+        <v>11.0536001520822</v>
       </c>
       <c r="K17">
-        <v>18.63141781896689</v>
+        <v>17.36216559283692</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.67656545148551</v>
       </c>
       <c r="M17">
-        <v>13.42163346998498</v>
+        <v>12.11828027027543</v>
       </c>
       <c r="N17">
-        <v>6.655966100274252</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>11.13075641808545</v>
+        <v>13.32945384504996</v>
       </c>
       <c r="P17">
-        <v>13.39135537363032</v>
+        <v>6.779508934927825</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.90404747080202</v>
+      </c>
+      <c r="R17">
+        <v>13.08704926399759</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.68676319122585</v>
+        <v>15.10357124507843</v>
       </c>
       <c r="C18">
-        <v>8.812843586737138</v>
+        <v>9.114030733608413</v>
       </c>
       <c r="D18">
-        <v>5.574473660274997</v>
+        <v>5.676125281809188</v>
       </c>
       <c r="E18">
-        <v>7.174250606450149</v>
+        <v>6.930093794888516</v>
       </c>
       <c r="F18">
-        <v>25.03311931727415</v>
+        <v>23.66486528384736</v>
       </c>
       <c r="G18">
-        <v>34.24690991893096</v>
+        <v>31.66453387071938</v>
       </c>
       <c r="I18">
-        <v>2.944800528118867</v>
+        <v>2.845900882530097</v>
       </c>
       <c r="J18">
-        <v>11.39619862940925</v>
+        <v>11.1291720665162</v>
       </c>
       <c r="K18">
-        <v>18.6234522051411</v>
+        <v>17.38786680431548</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>13.72309809929358</v>
       </c>
       <c r="M18">
-        <v>13.26375513646199</v>
+        <v>12.09940612522551</v>
       </c>
       <c r="N18">
-        <v>6.629691978272268</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>11.04942942218828</v>
+        <v>13.1854536771047</v>
       </c>
       <c r="P18">
-        <v>13.43746779095821</v>
+        <v>6.752162791613962</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>10.82758384169812</v>
+      </c>
+      <c r="R18">
+        <v>13.13483025959004</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.61678068513228</v>
+        <v>15.03593823374248</v>
       </c>
       <c r="C19">
-        <v>8.790628965803476</v>
+        <v>9.089781891233084</v>
       </c>
       <c r="D19">
-        <v>5.568467913995589</v>
+        <v>5.666278187672679</v>
       </c>
       <c r="E19">
-        <v>7.171172303142479</v>
+        <v>6.927141128015872</v>
       </c>
       <c r="F19">
-        <v>24.97566660564518</v>
+        <v>23.62478394840246</v>
       </c>
       <c r="G19">
-        <v>34.16259416157328</v>
+        <v>31.55775664196053</v>
       </c>
       <c r="I19">
-        <v>2.966125617512101</v>
+        <v>2.865505514268495</v>
       </c>
       <c r="J19">
-        <v>11.38796391015224</v>
+        <v>11.1440648210314</v>
       </c>
       <c r="K19">
-        <v>18.60665255549363</v>
+        <v>17.38231442308679</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>13.72820614371656</v>
       </c>
       <c r="M19">
-        <v>13.20829085218341</v>
+        <v>12.08206714031222</v>
       </c>
       <c r="N19">
-        <v>6.622209962587331</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>11.0192218191665</v>
+        <v>13.13418430197041</v>
       </c>
       <c r="P19">
-        <v>13.45047723391339</v>
+        <v>6.744252023070081</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.79888610397604</v>
+      </c>
+      <c r="R19">
+        <v>13.14891020155234</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.89977632743404</v>
+        <v>15.30746030224014</v>
       </c>
       <c r="C20">
-        <v>8.918255539864358</v>
+        <v>9.226352722780639</v>
       </c>
       <c r="D20">
-        <v>5.602589462908056</v>
+        <v>5.719563212968085</v>
       </c>
       <c r="E20">
-        <v>7.178466241500855</v>
+        <v>6.935097655618934</v>
       </c>
       <c r="F20">
-        <v>25.17829638383062</v>
+        <v>23.74253160125167</v>
       </c>
       <c r="G20">
-        <v>34.44286625211287</v>
+        <v>31.97623553375796</v>
       </c>
       <c r="I20">
-        <v>2.893864548989081</v>
+        <v>2.805485588991254</v>
       </c>
       <c r="J20">
-        <v>11.40654287081464</v>
+        <v>11.03910501319982</v>
       </c>
       <c r="K20">
-        <v>18.63780757309058</v>
+        <v>17.36142838158068</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.67092428432611</v>
       </c>
       <c r="M20">
-        <v>13.451203718114</v>
+        <v>12.12503143800027</v>
       </c>
       <c r="N20">
-        <v>6.660383249286481</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>11.14664862296937</v>
+        <v>13.35616281713788</v>
       </c>
       <c r="P20">
-        <v>13.38372936610037</v>
+        <v>6.784115701252658</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.91893143555911</v>
+      </c>
+      <c r="R20">
+        <v>13.07879178485366</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.88499497655288</v>
+        <v>16.15404114570035</v>
       </c>
       <c r="C21">
-        <v>9.32829613462113</v>
+        <v>9.584426217699011</v>
       </c>
       <c r="D21">
-        <v>5.712784469315594</v>
+        <v>5.925381695387887</v>
       </c>
       <c r="E21">
-        <v>7.207548452248943</v>
+        <v>6.98693716218204</v>
       </c>
       <c r="F21">
-        <v>25.88573813162711</v>
+        <v>23.9520714022443</v>
       </c>
       <c r="G21">
-        <v>35.43058872581961</v>
+        <v>34.29709789684316</v>
       </c>
       <c r="I21">
-        <v>2.648396580807887</v>
+        <v>2.605618701551884</v>
       </c>
       <c r="J21">
-        <v>11.48192345849123</v>
+        <v>10.22144066906694</v>
       </c>
       <c r="K21">
-        <v>18.76778003659219</v>
+        <v>17.20070750867452</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>13.41242075847364</v>
       </c>
       <c r="M21">
-        <v>14.24085329962028</v>
+        <v>12.21028991035902</v>
       </c>
       <c r="N21">
-        <v>6.790140951834947</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>11.57150139772813</v>
+        <v>14.0200760940539</v>
       </c>
       <c r="P21">
-        <v>13.16421655472478</v>
+        <v>6.915723396489934</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.30044080540941</v>
+      </c>
+      <c r="R21">
+        <v>12.8300103416669</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.51960330535255</v>
+        <v>16.69345087689502</v>
       </c>
       <c r="C22">
-        <v>9.574842267622364</v>
+        <v>9.790093223595623</v>
       </c>
       <c r="D22">
-        <v>5.779301183910737</v>
+        <v>6.05735588561983</v>
       </c>
       <c r="E22">
-        <v>7.231984989529891</v>
+        <v>7.029646421932342</v>
       </c>
       <c r="F22">
-        <v>26.38315861443117</v>
+        <v>24.1024386533372</v>
       </c>
       <c r="G22">
-        <v>36.13758679479254</v>
+        <v>35.97488211973555</v>
       </c>
       <c r="I22">
-        <v>2.523778579209753</v>
+        <v>2.556282720102395</v>
       </c>
       <c r="J22">
-        <v>11.5465660530998</v>
+        <v>9.691524281456756</v>
       </c>
       <c r="K22">
-        <v>18.88513336327017</v>
+        <v>17.11034362166423</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>13.25491388068715</v>
       </c>
       <c r="M22">
-        <v>14.73865010334671</v>
+        <v>12.28658299989508</v>
       </c>
       <c r="N22">
-        <v>6.87477486684416</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>11.84861832369191</v>
+        <v>14.43338220819091</v>
       </c>
       <c r="P22">
-        <v>13.02663753073928</v>
+        <v>7.000952800883775</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.54689814944403</v>
+      </c>
+      <c r="R22">
+        <v>12.67072764789174</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.1989261380972</v>
+        <v>16.43086839744396</v>
       </c>
       <c r="C23">
-        <v>9.429091488211762</v>
+        <v>9.680231030119838</v>
       </c>
       <c r="D23">
-        <v>5.739985818743707</v>
+        <v>5.976170978768996</v>
       </c>
       <c r="E23">
-        <v>7.222453693064063</v>
+        <v>7.005816546382405</v>
       </c>
       <c r="F23">
-        <v>26.14731359270748</v>
+        <v>24.09335559191588</v>
       </c>
       <c r="G23">
-        <v>35.81277188560811</v>
+        <v>34.95586331363634</v>
       </c>
       <c r="I23">
-        <v>2.555870622634766</v>
+        <v>2.522487323982175</v>
       </c>
       <c r="J23">
-        <v>11.52190532791495</v>
+        <v>10.06765044007659</v>
       </c>
       <c r="K23">
-        <v>18.84642330899933</v>
+        <v>17.20326421816648</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>13.37032306217485</v>
       </c>
       <c r="M23">
-        <v>14.47750685887827</v>
+        <v>12.28156674905625</v>
       </c>
       <c r="N23">
-        <v>6.827083837163476</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>11.70553237829852</v>
+        <v>14.22833687118267</v>
       </c>
       <c r="P23">
-        <v>13.10448407951072</v>
+        <v>6.953769886455269</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.42371406394111</v>
+      </c>
+      <c r="R23">
+        <v>12.76187862524175</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.9094288867996</v>
+        <v>15.31704953634145</v>
       </c>
       <c r="C24">
-        <v>8.887766880455841</v>
+        <v>9.192970326360571</v>
       </c>
       <c r="D24">
-        <v>5.594667149801017</v>
+        <v>5.709945205945535</v>
       </c>
       <c r="E24">
-        <v>7.183682948728277</v>
+        <v>6.939856067418154</v>
       </c>
       <c r="F24">
-        <v>25.21434009579488</v>
+        <v>23.78226696165638</v>
       </c>
       <c r="G24">
-        <v>34.51106379442898</v>
+        <v>32.03243610037851</v>
       </c>
       <c r="I24">
-        <v>2.878687128478019</v>
+        <v>2.786213362935963</v>
       </c>
       <c r="J24">
-        <v>11.42134100029432</v>
+        <v>11.06091182256634</v>
       </c>
       <c r="K24">
-        <v>18.67390574912616</v>
+        <v>17.39797742994181</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.70024416253466</v>
       </c>
       <c r="M24">
-        <v>13.44219483935034</v>
+        <v>12.15052160405367</v>
       </c>
       <c r="N24">
-        <v>6.654646250961591</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>11.14651905571345</v>
+        <v>13.34827804429043</v>
       </c>
       <c r="P24">
-        <v>13.39438541265169</v>
+        <v>6.778370537470548</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.9191160212259</v>
+      </c>
+      <c r="R24">
+        <v>13.08779251752495</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.49358724868433</v>
+        <v>13.90886908909711</v>
       </c>
       <c r="C25">
-        <v>8.275898312244783</v>
+        <v>8.453338149175535</v>
       </c>
       <c r="D25">
-        <v>5.432021529464215</v>
+        <v>5.485065124052846</v>
       </c>
       <c r="E25">
-        <v>7.148808941823588</v>
+        <v>6.920204022271887</v>
       </c>
       <c r="F25">
-        <v>24.22977038064743</v>
+        <v>22.99741555003463</v>
       </c>
       <c r="G25">
-        <v>33.14133167491698</v>
+        <v>30.83226968184294</v>
       </c>
       <c r="I25">
-        <v>3.244634175179682</v>
+        <v>3.102206176389728</v>
       </c>
       <c r="J25">
-        <v>11.33245805209911</v>
+        <v>11.05788240820363</v>
       </c>
       <c r="K25">
-        <v>18.51679870211052</v>
+        <v>17.38185586972732</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.88196010519411</v>
       </c>
       <c r="M25">
-        <v>12.23462042570397</v>
+        <v>11.87965713969628</v>
       </c>
       <c r="N25">
-        <v>6.478537741966747</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>10.52458011787948</v>
+        <v>12.18378266740119</v>
       </c>
       <c r="P25">
-        <v>13.71303583483305</v>
+        <v>6.590600265579178</v>
       </c>
       <c r="Q25">
+        <v>10.31416865494542</v>
+      </c>
+      <c r="R25">
+        <v>13.40577096681169</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
